--- a/Library/Altium_Lib/Yeni eklenen libraryler.xlsx
+++ b/Library/Altium_Lib/Yeni eklenen libraryler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\AltiumLibrary\Library\Altium_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AltiumLibrary\AltiumLibrary\Library\Altium_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7E5A6-D810-4A75-9725-BA18806E5457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2CE26-C164-48B1-9482-F1779D7EFDD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{359FDF62-FE91-448D-A3D5-0B506578322F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TPS563200DDCR</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>NCP718BSN330T1G</t>
+  </si>
+  <si>
+    <t>MOSFET__PMCXB900UEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +70,26 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B1746-7E75-4117-B9AF-04A4EA3C94A2}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,32 +436,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -459,6 +478,11 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Library/Altium_Lib/Yeni eklenen libraryler.xlsx
+++ b/Library/Altium_Lib/Yeni eklenen libraryler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AltiumLibrary\AltiumLibrary\Library\Altium_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_HW\Altium Lib\Library\Altium_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2CE26-C164-48B1-9482-F1779D7EFDD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544F27A-235C-4F5F-BE95-2D77119EB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{359FDF62-FE91-448D-A3D5-0B506578322F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{359FDF62-FE91-448D-A3D5-0B506578322F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,22 +466,22 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
